--- a/Question_Set2/Programming skills/Shopify.xlsx
+++ b/Question_Set2/Programming skills/Shopify.xlsx
@@ -16,23 +16,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Setting up taxes is one of the trickiest parts about building a Shopify store. While tax procedures can be complicated, Shopify does allow the layman to setup tax &amp;amp shipping to multiple countries easily. Which of the following processes is in the correct order for setting up taxes?', 'ques_type': 2, 'options': ['1) Set up the countries you will be shipping to 2) Set up the tax rates in the countries and regions to which you will be selling and shipping your products3) Override tax rates manually', '1) Select products individually2) Set up the taxes that apply to these items3) Select countries you will be shipping to', '1) Set up the countries you will be shipping to2) Select ‘Calculate tax’ on the ‘Taxes’ page in Shopify admin3) Override incorrect tax rates manually'], 'score': '1) Set up the countries you will be shipping to 2) Set up the tax rates in the countries and regions to which you will be selling and shipping your products3) Override tax rates manually'}, {'title': "What will the following code output if the user chooses Domestic Shipping, but the store also allows for International Shipping?{% if shipping_method.title == 'International Shipping' %}\n You're shipping internationally. Your order should arrive in 2–3 weeks.\n{% elsif shipping_method.title == 'Domestic Shipping' %}\n Your order should arrive in 3–4 days.\n{% else %}\n Thank you for your order!\n{% endif %}", 'ques_type': None, 'options': [], 'score': None}, {'title': 'Which of the following apps are frequently downloaded on the app store?', 'ques_type': 15, 'options': ['Oberlo', 'SEO Onpage', 'Kaviyo', 'AliExpress', 'Monarch', 'Beaver Builder'], 'score': ['Oberlo', 'SEO Onpage', 'Kaviyo', 'AliExpress']}, {'title': 'The following is an exhaustive list of order status options.ConfirmedOn its wayOut for deliveryDeliveredAttempted delivery', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "Setting up taxes is one of the trickiest parts about building a Shopify store. While tax procedures can be complicated, Shopify does allow the layman to setup tax &amp;amp shipping to multiple countries easily. Which of the following processes is in the correct order for setting up taxes?",
+        "ques_type": 2,
+        "options": [
+            "1) Set up the countries you will be shipping to 2) Set up the tax rates in the countries and regions to which you will be selling and shipping your products3) Override tax rates manually",
+            "1) Select products individually2) Set up the taxes that apply to these items3) Select countries you will be shipping to",
+            "1) Set up the countries you will be shipping to2) Select \u2018Calculate tax\u2019 on the \u2018Taxes\u2019 page in Shopify admin3) Override incorrect tax rates manually"
+        ],
+        "score": "1) Set up the countries you will be shipping to 2) Set up the tax rates in the countries and regions to which you will be selling and shipping your products3) Override tax rates manually"
+    },
+    {
+        "title": "What will the following code output if the user chooses Domestic Shipping, but the store also allows for International Shipping?{% if shipping_method.title == 'International Shipping' %}\n You're shipping internationally. Your order should arrive in 2\u20133 weeks.\n{% elsif shipping_method.title == 'Domestic Shipping' %}\n Your order should arrive in 3\u20134 days.\n{% else %}\n Thank you for your order!\n{% endif %}",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    },
+    {
+        "title": "Which of the following apps are frequently downloaded on the app store?",
+        "ques_type": 15,
+        "options": [
+            "Oberlo",
+            "SEO Onpage",
+            "Kaviyo",
+            "AliExpress",
+            "Monarch",
+            "Beaver Builder"
+        ],
+        "score": [
+            "Oberlo",
+            "SEO Onpage",
+            "Kaviyo",
+            "AliExpress"
+        ]
+    },
+    {
+        "title": "The following is an exhaustive list of order status options.ConfirmedOn its wayOut for deliveryDeliveredAttempted delivery",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +392,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
